--- a/CIG_project_list_Jan2024.xlsx
+++ b/CIG_project_list_Jan2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su/Desktop/Research/GSD_RA/cap_cost/cap-cost-error/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221B5D79-F6AC-E346-B9CD-714686615F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1ED223-17B1-AE43-B522-87FE2F0E3289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-6360" windowWidth="38400" windowHeight="20380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIG_dashboard" sheetId="1" r:id="rId1"/>
@@ -2400,8 +2400,8 @@
   </sheetPr>
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6411,8 +6411,8 @@
   </sheetPr>
   <dimension ref="A1:G330"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="I324" sqref="I324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
